--- a/Ex_4_mandatory/src/Excel chart.xlsx
+++ b/Ex_4_mandatory/src/Excel chart.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="18195" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="4.3.2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First number on the left side - see Exercise_4.3.1.txt </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -29,13 +41,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -47,13 +71,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -69,7 +99,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -103,100 +133,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -214,7 +244,7 @@
                   <c:v>6815.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4945.3999999999996</c:v>
+                  <c:v>4945.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4032.6</c:v>
@@ -223,7 +253,7 @@
                   <c:v>4490.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4219</c:v>
+                  <c:v>4219.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3844.7</c:v>
@@ -274,13 +304,13 @@
                   <c:v>4048.9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4216</c:v>
+                  <c:v>4216.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4112.1000000000004</c:v>
+                  <c:v>4112.1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4204.6000000000004</c:v>
+                  <c:v>4204.6</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>4183.2</c:v>
@@ -289,19 +319,19 @@
                   <c:v>4236.2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4291.1000000000004</c:v>
+                  <c:v>4291.1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4384</c:v>
+                  <c:v>4384.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4521</c:v>
+                  <c:v>4521.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4577.2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4743</c:v>
+                  <c:v>4743.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -316,11 +346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="55334016"/>
-        <c:axId val="55332224"/>
+        <c:axId val="2129753736"/>
+        <c:axId val="-2137726584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55334016"/>
+        <c:axId val="2129753736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -330,12 +360,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55332224"/>
+        <c:crossAx val="-2137726584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55332224"/>
+        <c:axId val="-2137726584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -346,7 +376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55334016"/>
+        <c:crossAx val="2129753736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -690,15 +720,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -706,7 +751,7 @@
         <v>10689.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -714,7 +759,7 @@
         <v>6815.9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -722,7 +767,7 @@
         <v>4945.3999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -730,7 +775,7 @@
         <v>4032.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -738,7 +783,7 @@
         <v>4490.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -746,7 +791,7 @@
         <v>4219</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -754,7 +799,7 @@
         <v>3844.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -762,7 +807,7 @@
         <v>3607.8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -770,7 +815,7 @@
         <v>3631.8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -778,7 +823,7 @@
         <v>3667.7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -786,7 +831,7 @@
         <v>3706.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -794,7 +839,7 @@
         <v>3741.6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -802,7 +847,7 @@
         <v>3798.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -810,7 +855,7 @@
         <v>3787.6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -818,7 +863,7 @@
         <v>3785.8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -826,7 +871,7 @@
         <v>3773.1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -834,7 +879,7 @@
         <v>3775.6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -842,7 +887,7 @@
         <v>3829.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -850,7 +895,7 @@
         <v>3833.1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -858,7 +903,7 @@
         <v>3968.3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -866,7 +911,7 @@
         <v>3936.2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -874,7 +919,7 @@
         <v>4048.9</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -882,7 +927,7 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -890,7 +935,7 @@
         <v>4112.1000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -898,7 +943,7 @@
         <v>4204.6000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -906,7 +951,7 @@
         <v>4183.2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -914,7 +959,7 @@
         <v>4236.2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -922,7 +967,7 @@
         <v>4291.1000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -930,7 +975,7 @@
         <v>4384</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -938,7 +983,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -946,7 +991,7 @@
         <v>4577.2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -957,6 +1002,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -966,9 +1016,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -978,8 +1033,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>